--- a/Result/Orbit/Service/JPN.xlsx
+++ b/Result/Orbit/Service/JPN.xlsx
@@ -463,7 +463,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>62.93174163037728</v>
+        <v>62.98857844880918</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>63.21285779605014</v>
+        <v>62.98545083093057</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>63.17784622922347</v>
+        <v>63.43519089237535</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>64.17246838994498</v>
+        <v>63.50521589699524</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>64.90407968426315</v>
+        <v>64.31120744528207</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>65.81276456014629</v>
+        <v>64.8594744550129</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>66.02064145432622</v>
+        <v>66.16278653774839</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>67.06628127810217</v>
+        <v>66.59627203059902</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>68.33286080063881</v>
+        <v>67.41101229973629</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>68.71535813405613</v>
+        <v>68.75876410628572</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>68.98968248826172</v>
+        <v>69.27087537951179</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>69.47396470638607</v>
+        <v>69.56959426241633</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>69.44979372917251</v>
+        <v>69.76343354107567</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56041712522416</v>
+        <v>69.70641198169434</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>70.26145846397984</v>
+        <v>69.67055354688479</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>71.91070646367305</v>
+        <v>70.35856360416017</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>70.54419653330581</v>
+        <v>71.9053508130242</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>71.69112244493857</v>
+        <v>70.94571713942902</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>71.74712328115686</v>
+        <v>71.78536867631908</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>71.62077261163049</v>
+        <v>72.09936085057578</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>70.88402134881488</v>
+        <v>71.86029134185273</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>69.79553086310989</v>
+        <v>71.00104937549547</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8870573141604</v>
+        <v>69.64621545318521</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -734,50 +734,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>69.88705731174406</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>69.50217711272649</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.92104800552411</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.80412089761087</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>69.88705731174406</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>69.16731124301002</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67.28911291953487</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.50213217848368</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>69.88705731174406</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>69.12069597363367</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.61493160822641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.94605818527653</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>69.88705731174406</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>69.09489673344562</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.23952446746819</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.54987949855956</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>69.88705731174406</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>69.25519565026559</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64.57466908195977</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73.10353484000015</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -825,7 +845,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>62.93174163037728</v>
+        <v>62.92425865763059</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>63.21285779605014</v>
+        <v>63.18610377573286</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>63.17784622922347</v>
+        <v>63.44717063593991</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>64.17246838994498</v>
+        <v>63.27566925087143</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>64.90407968426315</v>
+        <v>64.24737633632421</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>65.81276456014629</v>
+        <v>65.18626104464774</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>66.02064145432622</v>
+        <v>66.11663033128767</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>67.06628127810217</v>
+        <v>66.47268993669252</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>68.33286080063881</v>
+        <v>67.28559624017262</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>68.71535813405613</v>
+        <v>68.89806834790652</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>68.98968248826172</v>
+        <v>69.28686334332232</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>69.47396470638607</v>
+        <v>69.49584090610512</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>69.44979372917251</v>
+        <v>69.73746336981787</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56041712522416</v>
+        <v>69.52848348135964</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>70.26145846397984</v>
+        <v>69.64987991255498</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>71.91070646367305</v>
+        <v>70.37581633206682</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>70.54419653330581</v>
+        <v>72.19825000267498</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>71.69112244493857</v>
+        <v>71.06261543044505</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>71.74712328115686</v>
+        <v>71.8792563084493</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>71.62077261163049</v>
+        <v>71.80570090680123</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>70.88402134881488</v>
+        <v>72.00403282623409</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>69.79553086310989</v>
+        <v>71.07551391429465</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8870573141604</v>
+        <v>69.60601534565129</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>69.53577556669734</v>
+        <v>69.4267266392398</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>69.43251929106526</v>
+        <v>69.28850890553352</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>69.41674282423787</v>
+        <v>69.34206591368323</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>69.46539977114418</v>
+        <v>69.28191174850443</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>71.01676140684715</v>
+        <v>69.40331596541381</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1146,50 +1166,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>71.0167613786198</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>70.97869369004709</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70.04291054378521</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.17330007412504</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>71.0167613786198</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>71.497173807867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>69.69539770345297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.50884451928644</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>71.0167613786198</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>71.68853022430767</v>
+      </c>
+      <c r="C4" t="n">
+        <v>69.40712963398613</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.40124408092555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>71.0167613786198</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>71.8491487897429</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.93423915099811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.44220785344628</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>71.0167613786198</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>72.36587333858569</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.85981476685711</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76.36748856698847</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
